--- a/inst/dados_premissas/2024/segmento.xlsx
+++ b/inst/dados_premissas/2024/segmento.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\mmgd\dados_shape_municipios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Geracao Distribuida\PDE\PLAN26-30\dados_premissas\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B812B968-B66F-4347-8680-EB10E315812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3525" yWindow="435" windowWidth="21840" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$33</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="21">
   <si>
     <t>classe</t>
   </si>
@@ -82,12 +83,15 @@
   </si>
   <si>
     <t>comercial_at_remoto</t>
+  </si>
+  <si>
+    <t>Consumo Próprio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,9 +152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,9 +192,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,7 +264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,16 +437,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
@@ -854,8 +858,64 @@
         <v>16</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D29"/>
+  <autoFilter ref="A1:D33" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>